--- a/3-phase.xlsx
+++ b/3-phase.xlsx
@@ -463,1091 +463,1091 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.893555253029268</v>
+        <v>0.8859601080800834</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7226618523424276</v>
+        <v>0.7246712271112773</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1350336809152893</v>
+        <v>-0.1367087303541256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8955846141562794</v>
+        <v>0.8804245301736301</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5780405337427167</v>
+        <v>0.5812595077245544</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2279100684353564</v>
+        <v>-0.2335994407259528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8742289412693645</v>
+        <v>0.8521252710502782</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4363984210693279</v>
+        <v>0.4400487940763762</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2860380239141336</v>
+        <v>-0.2968152425408122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8320299449797982</v>
+        <v>0.8040998434906728</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3013248298326081</v>
+        <v>0.3046901907822011</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3163093192641394</v>
+        <v>-0.3322986384272319</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.7718534739137478</v>
+        <v>0.7396029571792734</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1757466010073244</v>
+        <v>0.1782035598309821</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3249444461682167</v>
+        <v>-0.3456048563280124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6967876770637244</v>
+        <v>0.6619984801643182</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06193389762597646</v>
+        <v>0.06297435688775588</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3174085919545397</v>
+        <v>-0.3417775560536545</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.6100440626184325</v>
+        <v>0.574659367795451</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.03847629127967216</v>
+        <v>-0.03923145552593257</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2983824449071215</v>
+        <v>-0.3252761890988011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5148637714507959</v>
+        <v>0.4808774089507273</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1244419571395656</v>
+        <v>-0.1272371516359568</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2717742908679486</v>
+        <v>-0.2999449261166925</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4144310511943863</v>
+        <v>0.3837841934096765</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1954662182413362</v>
+        <v>-0.2004124532683257</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2407617537817008</v>
+        <v>-0.2690139431548139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.3117955613638327</v>
+        <v>0.2862842659119808</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2515387605576415</v>
+        <v>-0.2586210070834709</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2078534100649328</v>
+        <v>-0.2351248815032346</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2098047724631239</v>
+        <v>0.1910010126042502</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2930713793116607</v>
+        <v>-0.3021608394776434</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1749622940333916</v>
+        <v>-0.2003733889898748</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.111047353025889</v>
+        <v>0.1002354334833009</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3208302201493373</v>
+        <v>-0.3317003483338219</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1434849571819115</v>
+        <v>-0.1663627517636172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.01780807773433649</v>
+        <v>0.01593759769036911</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3358670658216455</v>
+        <v>-0.3482121869227104</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1143812160049549</v>
+        <v>-0.134263689034075</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.06796555417741594</v>
+        <v>-0.06030973700572368</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3394517289645244</v>
+        <v>-0.3529071519133055</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.08825100538831418</v>
+        <v>-0.10487637595392</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.144685120632936</v>
+        <v>-0.1272961292648436</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.3330073062318012</v>
+        <v>-0.347169916490743</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.06540584386712654</v>
+        <v>-0.078691660003071</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.2111319179839396</v>
+        <v>-0.1841780945308079</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.3180497349430191</v>
+        <v>-0.332498162086429</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.04593331888161482</v>
+        <v>-0.0559492312111128</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2664571148935255</v>
+        <v>-0.2304645643880985</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.2961327805579508</v>
+        <v>-0.3104463683298336</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.02975372668086923</v>
+        <v>-0.03669119105996254</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.3101723064818835</v>
+        <v>-0.2659944728300825</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.2687992803207899</v>
+        <v>-0.2825752295402569</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01666856904115413</v>
+        <v>-0.02081003940140583</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.342131529730039</v>
+        <v>-0.2909078544295041</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2375391825400586</v>
+        <v>-0.2504073851701652</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.006401036168575344</v>
+        <v>-0.008090567936136005</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.3625059322454384</v>
+        <v>-0.3056118720508302</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.203754657955218</v>
+        <v>-0.2153898875821401</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001371088324863882</v>
+        <v>0.001754479524334284</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.3717523755566498</v>
+        <v>-0.3107431835619244</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1687323238466682</v>
+        <v>-0.178863588579134</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00698945916968114</v>
+        <v>0.009054835965637163</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.3705773023894062</v>
+        <v>-0.3071280123100997</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.1336224159851568</v>
+        <v>-0.1420394101223544</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01079537406430294</v>
+        <v>0.01415887846603045</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.3598972070981499</v>
+        <v>-0.2957412097782329</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.09942456995070538</v>
+        <v>-0.1059812773474837</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01311533029011982</v>
+        <v>0.01741504232309924</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.3407970226127869</v>
+        <v>-0.2776654960343619</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.06697973240651331</v>
+        <v>-0.0715953348702118</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01425110573753966</v>
+        <v>0.01915790467888248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.3144876795999244</v>
+        <v>-0.254051939714762</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.03696761421504142</v>
+        <v>-0.039624940959223</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01447356713270142</v>
+        <v>0.01969831912947304</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.2822640082334741</v>
+        <v>-0.2260825997347788</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.009909019599262867</v>
+        <v>-0.01065083803204431</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01401946439761549</v>
+        <v>0.01931697665268135</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.2454640445824441</v>
+        <v>-0.1949361009750871</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0138276630592108</v>
+        <v>0.01490416911055673</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0130905426538143</v>
+        <v>0.01826078850411023</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.2054306769257648</v>
+        <v>-0.1617567608605892</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0340165452326595</v>
+        <v>0.03676673571501188</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01185438486863525</v>
+        <v>0.01674152605395592</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.163476427135747</v>
+        <v>-0.1276277276902774</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05056163190099345</v>
+        <v>0.0548014235538023</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01044648266992448</v>
+        <v>0.01493620451795076</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.1208520134115202</v>
+        <v>-0.09354843899585011</v>
       </c>
       <c r="B32" t="n">
-        <v>0.06348223759754068</v>
+        <v>0.06899678774576395</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008973115999382159</v>
+        <v>0.01298875692012016</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.07871918768878122</v>
+        <v>-0.06041656279651793</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07289709839963204</v>
+        <v>0.07944979407762648</v>
       </c>
       <c r="C33" t="n">
-        <v>0.007514700867576368</v>
+        <v>0.01101260718226308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.03812818831498953</v>
+        <v>-0.02901444950814946</v>
       </c>
       <c r="B34" t="n">
-        <v>0.079007800481239</v>
+        <v>0.08634921498058622</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006129336393801131</v>
+        <v>0.00909381367182233</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-5.653688573835874e-17</v>
+        <v>-4.265724492501095e-17</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08208208248970705</v>
+        <v>0.0899585976427065</v>
       </c>
       <c r="C35" t="n">
-        <v>0.004856346296503678</v>
+        <v>0.007294514395295277</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.03488652787149316</v>
+        <v>0.02609825218076072</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08243749840305049</v>
+        <v>0.09059933354525351</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003719665459186739</v>
+        <v>0.005656460559293763</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.06590278374570221</v>
+        <v>0.04888213771768162</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08042585261998053</v>
+        <v>0.0886342880076338</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002730969067762209</v>
+        <v>0.004204475306106866</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.09257391354255078</v>
+        <v>0.06808129524166645</v>
       </c>
       <c r="B38" t="n">
-        <v>0.07641874251165029</v>
+        <v>0.08445237391578264</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001892480416867844</v>
+        <v>0.002949718436877991</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1145780558457827</v>
+        <v>0.08354748669043537</v>
       </c>
       <c r="B39" t="n">
-        <v>0.07079446789078925</v>
+        <v>0.07845437824064531</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001199424399636352</v>
+        <v>0.001892675635444882</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.1317416767277207</v>
+        <v>0.09524624930781982</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06392649386290829</v>
+        <v>0.07104027548027057</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0006421176824677942</v>
+        <v>0.001025822180554448</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1440314567337733</v>
+        <v>0.1032463730889468</v>
       </c>
       <c r="B41" t="n">
-        <v>0.05617358499928981</v>
+        <v>0.06259819071498804</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0002077044699137348</v>
+        <v>0.0003359366925985426</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1515432334420364</v>
+        <v>0.1077077009462613</v>
       </c>
       <c r="B42" t="n">
-        <v>0.04787166604649089</v>
+        <v>0.0534951081517453</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0001184405377790817</v>
+        <v>-0.0001939394293715644</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1544885365289636</v>
+        <v>0.1088677433175677</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03932740845533671</v>
+        <v>0.04406936011814922</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.0003516120379644246</v>
+        <v>-0.0005828859964909178</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1531792690215834</v>
+        <v>0.1070275809173454</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03081349354377077</v>
+        <v>0.03462487738949668</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0005069420876596591</v>
+        <v>-0.0008508095948622283</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1480110893914615</v>
+        <v>0.1025375005767709</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02256546247321353</v>
+        <v>0.02542713512242036</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0005987993094464225</v>
+        <v>-0.001017441538518538</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1394460356614466</v>
+        <v>0.09578277146685243</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01478003051823912</v>
+        <v>0.01670068986733951</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0006403825929512094</v>
+        <v>-0.001101594693972682</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1279949063319815</v>
+        <v>0.08716992434419057</v>
       </c>
       <c r="B47" t="n">
-        <v>0.007614718208659058</v>
+        <v>0.008628172218121316</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0006434741651638938</v>
+        <v>-0.001120643756266184</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.1141998754678167</v>
+        <v>0.077113846686839</v>
       </c>
       <c r="B48" t="n">
-        <v>0.001188634484355273</v>
+        <v>0.001350576480775453</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.0006183195836476872</v>
+        <v>-0.00109019354458436</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.09861777263325845</v>
+        <v>0.06602595353120339</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.004415763475828064</v>
+        <v>-0.005031327043058397</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.0005736055469856917</v>
+        <v>-0.0010239012902864</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.08180440451486945</v>
+        <v>0.0543036392153243</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00915011324041072</v>
+        <v>-0.01045464046569028</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.0005165100964984924</v>
+        <v>-0.0009334212994716136</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.06430023603236223</v>
+        <v>0.04232116068128917</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.01299697096358674</v>
+        <v>-0.0148912333796983</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.000452803554095149</v>
+        <v>-0.0008284434373493763</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.04661768648266201</v>
+        <v>0.03042204992953222</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.01596618784315895</v>
+        <v>-0.01834406767992108</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0003869822178742429</v>
+        <v>-0.0007168003155449574</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.02923023267591403</v>
+        <v>0.01891310290580844</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.01809100069737423</v>
+        <v>-0.02084312764256257</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0003224202885009259</v>
+        <v>-0.0006046216363710196</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.0125634478667593</v>
+        <v>0.008059945594086546</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.01942398471346516</v>
+        <v>-0.02244111925115904</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.0002615286391688466</v>
+        <v>-0.0004965176825269504</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.0030119558401876</v>
+        <v>-0.001915863765006434</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.02003300059742585</v>
+        <v>-0.02320908815590762</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0002059118203680294</v>
+        <v>-0.0003957773053088318</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.01718507161348563</v>
+        <v>-0.0108382739694274</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.01999725091601378</v>
+        <v>-0.02323208876128912</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.0001565170867825177</v>
+        <v>-0.0003045688676657829</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.02970777158622943</v>
+        <v>-0.01857683013182325</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.01940354207383532</v>
+        <v>-0.02260501852100395</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.0001137712484280232</v>
+        <v>-0.0002241353822098049</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.04039580056725842</v>
+        <v>-0.02504554626014942</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.01834282974799481</v>
+        <v>-0.02142871228743957</v>
       </c>
       <c r="C58" t="n">
-        <v>-7.770279857974835e-05</v>
+        <v>-0.0001549775178163779</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.04912812126051302</v>
+        <v>-0.03020071329325389</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.01690710727036471</v>
+        <v>-0.01980637215552716</v>
       </c>
       <c r="C59" t="n">
-        <v>-4.804808505033401e-05</v>
+        <v>-9.702022268791289e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.05584467662054213</v>
+        <v>-0.03403780764637783</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.01518667888061723</v>
+        <v>-0.01784038922102326</v>
       </c>
       <c r="C60" t="n">
-        <v>-2.434130368003608e-05</v>
+        <v>-4.976043424866736e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.06054276191643403</v>
+        <v>-0.03658767255715758</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.01326784336420594</v>
+        <v>-0.01562959552106032</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.988841710124175e-06</v>
+        <v>-1.239473668872381e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.06327221873865414</v>
+        <v>-0.0379121464675893</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.01123099864614941</v>
+        <v>-0.01326696753460137</v>
       </c>
       <c r="C62" t="n">
-        <v>7.67097683678953e-06</v>
+        <v>1.607308663464082e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.06412967567294064</v>
+        <v>-0.03809930981179813</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.009149164659215829</v>
+        <v>-0.01083778730083629</v>
       </c>
       <c r="C63" t="n">
-        <v>1.732135340569455e-05</v>
+        <v>3.674384331251066e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.06325206596861553</v>
+        <v>-0.03725851446272972</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.007086910391814957</v>
+        <v>-0.008418253689870503</v>
       </c>
       <c r="C64" t="n">
-        <v>2.363210660308438e-05</v>
+        <v>5.075272186736912e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.06080965168567879</v>
+        <v>-0.03551534933882964</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.00509966152302536</v>
+        <v>-0.006074524778661603</v>
       </c>
       <c r="C65" t="n">
-        <v>2.723474519919625e-05</v>
+        <v>5.921535829608842e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.05699877708576909</v>
+        <v>-0.03300668193457216</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.003233357482097716</v>
+        <v>-0.003862162719564528</v>
       </c>
       <c r="C66" t="n">
-        <v>2.87058934209624e-05</v>
+        <v>6.318823964690088e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.05203456211025581</v>
+        <v>-0.02987589948023256</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.001524421083963943</v>
+        <v>-0.001825944946978773</v>
       </c>
       <c r="C67" t="n">
-        <v>2.855752288047597e-05</v>
+        <v>6.364142061798388e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.04614373041569378</v>
+        <v>-0.02626845571522509</v>
       </c>
       <c r="B68" t="n">
-        <v>-4.400543437934125e-18</v>
+        <v>-5.285607778532068e-18</v>
       </c>
       <c r="C68" t="n">
-        <v>2.723257221844188e-05</v>
+        <v>6.144154666901029e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.0395577464154348</v>
+        <v>-0.02232781051213488</v>
       </c>
       <c r="B69" t="n">
-        <v>0.001321562904605406</v>
+        <v>0.001591777452447818</v>
       </c>
       <c r="C69" t="n">
-        <v>2.510468855693457e-05</v>
+        <v>5.734327029587172e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.03250641293546978</v>
+        <v>-0.01819183041495655</v>
       </c>
       <c r="B70" t="n">
-        <v>0.002430074057823943</v>
+        <v>0.00293507975056718</v>
       </c>
       <c r="C70" t="n">
-        <v>2.248099054714914e-05</v>
+        <v>5.198729319894736e-05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.02521205626427211</v>
+        <v>-0.0139896991057298</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003322691579781793</v>
+        <v>0.004024355296493983</v>
       </c>
       <c r="C71" t="n">
-        <v>1.960692068953494e-05</v>
+        <v>4.590344694601408e-05</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.01788439937302896</v>
+        <v>-0.009839368380802538</v>
       </c>
       <c r="B72" t="n">
-        <v>0.004003026945991093</v>
+        <v>0.00486184027472625</v>
       </c>
       <c r="C72" t="n">
-        <v>1.667241695017404e-05</v>
+        <v>3.951742272201418e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.01071619767806976</v>
+        <v>-0.005845562827650786</v>
       </c>
       <c r="B73" t="n">
-        <v>0.004480184598873963</v>
+        <v>0.005456497623369102</v>
       </c>
       <c r="C73" t="n">
-        <v>1.381878507735826e-05</v>
+        <v>3.315996441523536e-05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.003879685630010801</v>
+        <v>-0.002098335401360013</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0047677747899756</v>
+        <v>0.00582290470533294</v>
       </c>
       <c r="C74" t="n">
-        <v>1.114578994358389e-05</v>
+        <v>2.707753906327175e-05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.00247614270669002</v>
+        <v>0.001327843210448342</v>
       </c>
       <c r="B75" t="n">
-        <v>0.00488293099343399</v>
+        <v>0.005980127241939135</v>
       </c>
       <c r="C75" t="n">
-        <v>8.718604765696338e-06</v>
+        <v>2.14436875781164e-05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.008227419505501795</v>
+        <v>0.00437449096424547</v>
       </c>
       <c r="B76" t="n">
-        <v>0.004845358932079705</v>
+        <v>0.005950612636862906</v>
       </c>
       <c r="C76" t="n">
-        <v>6.574360474787848e-06</v>
+        <v>1.637043188566951e-05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.01327647745190603</v>
+        <v>0.006999056497200025</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0046764397695124</v>
+        <v>0.005759131029755885</v>
       </c>
       <c r="C77" t="n">
-        <v>4.728124024373617e-06</v>
+        <v>1.19192691813374e-05</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.01755215359625675</v>
+        <v>0.009174445029148479</v>
       </c>
       <c r="B78" t="n">
-        <v>0.00439840549606187</v>
+        <v>0.005431787455032221</v>
       </c>
       <c r="C78" t="n">
-        <v>3.178204911352349e-06</v>
+        <v>8.111418441231064e-06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.02100938041115667</v>
+        <v>0.01088818251254588</v>
       </c>
       <c r="B79" t="n">
-        <v>0.004033600106013074</v>
+        <v>0.004995123502915795</v>
       </c>
       <c r="C79" t="n">
-        <v>1.910744958419773e-06</v>
+        <v>4.937098333605881e-06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.02362813525456768</v>
+        <v>0.0121412765289285</v>
       </c>
       <c r="B80" t="n">
-        <v>0.003603835939900878</v>
+        <v>0.004475322027466559</v>
       </c>
       <c r="C80" t="n">
-        <v>9.035890591747033e-07</v>
+        <v>2.363709835118573e-06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.02541183001570957</v>
+        <v>0.01294683458318358</v>
       </c>
       <c r="B81" t="n">
-        <v>0.003129850640371008</v>
+        <v>0.00389752383893267</v>
       </c>
       <c r="C81" t="n">
-        <v>1.294658386405744e-07</v>
+        <v>3.42872402835342e-07</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.02638523027791417</v>
+        <v>0.01332850077682723</v>
       </c>
       <c r="B82" t="n">
-        <v>0.002630866613825113</v>
+        <v>0.003285261052327459</v>
       </c>
       <c r="C82" t="n">
-        <v>-4.414712253241531e-07</v>
+        <v>-1.183678849634829e-06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.02659199793177251</v>
+        <v>0.01331877052301143</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002124251753785333</v>
+        <v>0.002660007915569326</v>
       </c>
       <c r="C83" t="n">
-        <v>-8.396780561399743e-07</v>
+        <v>-2.279283952531326e-06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.02609195294542085</v>
+        <v>0.01295724019971738</v>
       </c>
       <c r="B84" t="n">
-        <v>0.001625277497990511</v>
+        <v>0.00204084656258448</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.094758231287836e-06</v>
+        <v>-3.008555254262058e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.02495814914092583</v>
+        <v>0.01228884464232821</v>
       </c>
       <c r="B85" t="n">
-        <v>0.001146968075001647</v>
+        <v>0.001444242263194419</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.234431629037877e-06</v>
+        <v>-3.43447972709006e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.02327385558240913</v>
+        <v>0.01136213038185865</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0007000330476750928</v>
+        <v>0.0008839203877520974</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.283861372806282e-06</v>
+        <v>-3.616314497778295e-06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.02112952983966794</v>
+        <v>0.01022760677332896</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0002928739672057291</v>
+        <v>0.0003708354692683666</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.265271149940114e-06</v>
+        <v>-3.608160178246188e-06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.01861986226747665</v>
+        <v>0.008936210859794248</v>
       </c>
       <c r="B88" t="n">
-        <v>-6.834491156463388e-05</v>
+        <v>-8.677858621001129e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.19779092338673e-06</v>
+        <v>-3.458098542368037e-06</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.01584096187160986</v>
+        <v>0.007537915202215879</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.0003795723682586937</v>
+        <v>-0.0004832889463832765</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.097476034985449e-06</v>
+        <v>-3.207787097203033e-06</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.01288774466291243</v>
+        <v>0.006080501180703626</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.000638703030751243</v>
+        <v>-0.0008154871795942062</v>
       </c>
       <c r="C90" t="n">
-        <v>-9.774521406463929e-07</v>
+        <v>-2.892411877445784e-06</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.009851574974657277</v>
+        <v>0.004608513627774724</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.0008453776812384914</v>
+        <v>-0.001082367708313897</v>
       </c>
       <c r="C91" t="n">
-        <v>-8.481458790878204e-07</v>
+        <v>-2.540910302030715e-06</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.006818199370513794</v>
+        <v>0.003162406257154657</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.001000760999790515</v>
+        <v>-0.001284873315083494</v>
       </c>
       <c r="C92" t="n">
-        <v>-7.17568333865138e-07</v>
+        <v>-2.176387317512092e-06</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.003866001817729187</v>
+        <v>0.001777881346824589</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.001107306002059947</v>
+        <v>-0.001425619015091816</v>
       </c>
       <c r="C93" t="n">
-        <v>-5.91624979982579e-07</v>
+        <v>-1.816659639731801e-06</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.001064598035392885</v>
+        <v>0.0004854216421242826</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.001168513570435677</v>
+        <v>-0.00150860476117597</v>
       </c>
       <c r="C94" t="n">
-        <v>-4.744317708646759e-07</v>
+        <v>-1.474874180514943e-06</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.001526223386061428</v>
+        <v>-0.0006899924422141484</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.001188694498286988</v>
+        <v>-0.001538926415920716</v>
       </c>
       <c r="C95" t="n">
-        <v>-3.68622244626607e-07</v>
+        <v>-1.160157338184834e-06</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.003857215131689981</v>
+        <v>-0.001728991454660364</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.001172740408876768</v>
+        <v>-0.001522493263855798</v>
       </c>
       <c r="C96" t="n">
-        <v>-2.756349877671192e-07</v>
+        <v>-8.782614886922204e-07</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.005890051374637639</v>
+        <v>-0.002617766001816833</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.001125908814242271</v>
+        <v>-0.001465759093611326</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.959745056153057e-07</v>
+        <v>-6.321835875635438e-07</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.007597392590943985</v>
+        <v>-0.003347873688906921</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.00105362648078242</v>
+        <v>-0.001375472600364058</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.294415556442446e-07</v>
+        <v>-4.227382122588803e-07</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.008962660111769362</v>
+        <v>-0.003915923307164617</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.0009613141986680875</v>
+        <v>-0.001258451583298937</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.533136393973486e-08</v>
+        <v>-2.490736339560084e-07</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.009979550934519941</v>
+        <v>-0.004323156970867261</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.000854235037754524</v>
+        <v>-0.001121384176150081</v>
       </c>
       <c r="C100" t="n">
-        <v>-3.259993920966059e-08</v>
+        <v>-1.091246490791773e-07</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.01065132745159695</v>
+        <v>-0.004574951528989109</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.0007373672346253902</v>
+        <v>-0.0009706591806249309</v>
       </c>
       <c r="C101" t="n">
-        <v>-1.295684163359452e-22</v>
+        <v>-4.39095881901809e-22</v>
       </c>
     </row>
   </sheetData>
